--- a/SAP 6조/1. WBS.xlsx
+++ b/SAP 6조/1. WBS.xlsx
@@ -1000,15 +1000,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1017,9 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,6 +1079,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,7 +1404,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1429,31 +1429,31 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="64" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
     </row>
     <row r="3" spans="2:27" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
@@ -1489,19 +1489,19 @@
       <c r="P3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="65" t="s">
+      <c r="Q3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
     </row>
     <row r="4" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
@@ -1522,7 +1522,7 @@
         <v>44401</v>
       </c>
       <c r="J4" s="13">
-        <f t="shared" ref="J4:T4" si="0">I4+7</f>
+        <f t="shared" ref="J4:O4" si="0">I4+7</f>
         <v>44408</v>
       </c>
       <c r="K4" s="13">
@@ -1549,20 +1549,20 @@
         <f>O4+7</f>
         <v>44450</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="62">
         <f>P4+7</f>
         <v>44457</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
     </row>
     <row r="5" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
@@ -1590,17 +1590,17 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
@@ -1615,25 +1615,25 @@
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
@@ -1648,25 +1648,25 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="24"/>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="24"/>
@@ -1712,25 +1712,25 @@
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" s="24"/>
@@ -1746,25 +1746,25 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
@@ -1779,25 +1779,25 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="24"/>
@@ -1813,25 +1813,25 @@
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="24"/>
@@ -1841,25 +1841,25 @@
       <c r="F13" s="48"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
@@ -1874,25 +1874,25 @@
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="24"/>
@@ -1907,25 +1907,25 @@
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="24"/>
@@ -1939,27 +1939,27 @@
       <c r="F16" s="48">
         <v>0.2</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="32"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
@@ -1975,25 +1975,25 @@
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B18" s="24"/>
@@ -2009,25 +2009,25 @@
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
@@ -2043,25 +2043,25 @@
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
@@ -2076,25 +2076,25 @@
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="24"/>
@@ -2109,25 +2109,25 @@
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="24"/>
@@ -2141,25 +2141,25 @@
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23" s="24"/>
@@ -2174,25 +2174,25 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
@@ -2208,25 +2208,25 @@
       </c>
       <c r="G24" s="44"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B25" s="24"/>
@@ -2242,25 +2242,25 @@
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
@@ -2270,25 +2270,25 @@
       <c r="F26" s="51"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="19" t="s">
@@ -2303,25 +2303,25 @@
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
@@ -2336,25 +2336,25 @@
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
@@ -2368,25 +2368,25 @@
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="32"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30" s="24"/>
@@ -2400,25 +2400,25 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
@@ -2433,25 +2433,25 @@
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" s="24"/>
@@ -2465,57 +2465,57 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="32"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
     </row>
     <row r="33" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74">
+      <c r="E33" s="69"/>
+      <c r="F33" s="70">
         <v>0</v>
       </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.4">
       <c r="R34" s="39"/>
@@ -2537,12 +2537,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2763,15 +2760,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9730BED5-4BBC-475E-A8C3-612ED98DB53F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DAA82B4-E148-4663-BD6A-FDE1E81B4FD1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2796,18 +2805,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DAA82B4-E148-4663-BD6A-FDE1E81B4FD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9730BED5-4BBC-475E-A8C3-612ED98DB53F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>